--- a/outputs-HGR-r202/g__CAG-217.xlsx
+++ b/outputs-HGR-r202/g__CAG-217.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10835.fa</t>
+          <t>even_MAG-GUT17733.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -495,7 +495,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11152.fa</t>
+          <t>even_MAG-GUT18447.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11304.fa</t>
+          <t>even_MAG-GUT19650.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +547,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11417.fa</t>
+          <t>even_MAG-GUT26038.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12643.fa</t>
+          <t>even_MAG-GUT26333.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -599,7 +599,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15914.fa</t>
+          <t>even_MAG-GUT26441.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -625,7 +625,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16113.fa</t>
+          <t>even_MAG-GUT30383.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -651,7 +651,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16845.fa</t>
+          <t>even_MAG-GUT31138.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -677,7 +677,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17733.fa</t>
+          <t>even_MAG-GUT32575.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -703,7 +703,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18447.fa</t>
+          <t>even_MAG-GUT32966.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -729,7 +729,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19219.fa</t>
+          <t>even_MAG-GUT33640.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -755,7 +755,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19650.fa</t>
+          <t>even_MAG-GUT35837.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -781,7 +781,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21122.fa</t>
+          <t>even_MAG-GUT37870.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -807,7 +807,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26038.fa</t>
+          <t>even_MAG-GUT39098.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -833,7 +833,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26204.fa</t>
+          <t>even_MAG-GUT39237.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -859,7 +859,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26333.fa</t>
+          <t>even_MAG-GUT43330.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -885,7 +885,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26441.fa</t>
+          <t>even_MAG-GUT5563.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -911,7 +911,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30142.fa</t>
+          <t>even_MAG-GUT57096.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -937,7 +937,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30383.fa</t>
+          <t>even_MAG-GUT58338.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -963,7 +963,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30728.fa</t>
+          <t>even_MAG-GUT5979.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -989,7 +989,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30970.fa</t>
+          <t>even_MAG-GUT60414.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1015,7 +1015,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31138.fa</t>
+          <t>even_MAG-GUT60769.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1041,7 +1041,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32215.fa</t>
+          <t>even_MAG-GUT62629.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1067,7 +1067,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32966.fa</t>
+          <t>even_MAG-GUT62657.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1093,7 +1093,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33640.fa</t>
+          <t>even_MAG-GUT68204.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1119,7 +1119,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35935.fa</t>
+          <t>even_MAG-GUT69285.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1145,7 +1145,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35964.fa</t>
+          <t>even_MAG-GUT76659.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1171,7 +1171,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37870.fa</t>
+          <t>even_MAG-GUT8457.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1197,7 +1197,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39098.fa</t>
+          <t>even_MAG-GUT87861.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1223,7 +1223,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39237.fa</t>
+          <t>even_MAG-GUT8839.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1249,7 +1249,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43330.fa</t>
+          <t>even_MAG-GUT88487.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1275,7 +1275,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52709.fa</t>
+          <t>even_MAG-GUT9435.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1293,994 +1293,6 @@
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT53494.fa</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT54926.fa</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT55179.fa</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5525.fa</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5563.fa</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5635.fa</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56414.fa</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56652.fa</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT57096.fa</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58166.fa</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59716.fa</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5979.fa</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60414.fa</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60769.fa</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62629.fa</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62657.fa</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76659.fa</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77996.fa</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78403.fa</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78958.fa</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78976.fa</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79013.fa</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79096.fa</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83028.fa</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83780.fa</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8457.fa</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85125.fa</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8529.fa</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8531.fa</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87142.fa</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87253.fa</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8839.fa</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88487.fa</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88824.fa</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8928.fa</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9176.fa</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9275.fa</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9435.fa</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
         <is>
           <t>s__CAG-217 sp000436335</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-217.xlsx
+++ b/outputs-HGR-r202/g__CAG-217.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1132,6 +1292,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1318,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1344,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1195,6 +1370,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1216,6 +1396,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1237,6 +1422,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1258,6 +1448,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1279,6 +1474,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1300,6 +1500,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1321,6 +1526,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1342,6 +1552,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1363,6 +1578,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1384,6 +1604,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1405,6 +1630,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1426,6 +1656,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1447,6 +1682,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1468,6 +1708,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1489,6 +1734,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1510,6 +1760,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1531,6 +1786,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1552,6 +1812,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1573,6 +1838,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1594,6 +1864,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1615,6 +1890,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1636,6 +1916,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1657,6 +1942,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1678,6 +1968,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1699,6 +1994,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1720,6 +2020,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1741,6 +2046,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1762,6 +2072,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1783,6 +2098,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1804,6 +2124,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1825,6 +2150,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1846,6 +2176,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1867,6 +2202,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1888,6 +2228,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1909,6 +2254,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1930,6 +2280,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1951,6 +2306,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1972,6 +2332,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1993,6 +2358,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2014,6 +2384,11 @@
           <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2031,6 +2406,11 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E76" t="inlineStr">
+        <is>
+          <t>s__CAG-217 sp000436335</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>s__CAG-217 sp000436335</t>
         </is>
